--- a/RP_icse_2018/RQ2_automation_needs/Q2.6-Q2.7_evaluation_survey.xlsx
+++ b/RP_icse_2018/RQ2_automation_needs/Q2.6-Q2.7_evaluation_survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\automation-needs-mcr\RP_icse_2018\RQ2_automation_needs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BA\automation-needs-mcr\RP_icse_2018\RQ2_automation_needs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1A23B-2301-4914-852F-9DB9A89C0272}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58095ACB-FC7D-43AD-9BF3-E972FE097E12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="2" xr2:uid="{E22EF20A-38F1-41A7-8577-0E0050B11279}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{E22EF20A-38F1-41A7-8577-0E0050B11279}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2.6-Q2.7 all Findings" sheetId="1" r:id="rId1"/>
@@ -9646,8 +9646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616A0B4-CFEE-437F-BF8F-5F181D92292E}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U124" sqref="U124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18311,7 +18311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6735B0-49A6-4917-99B9-4B93E20A16DC}">
   <dimension ref="A1:AF142"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -25600,11 +25600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469E57A-2C29-4C19-8EE8-3A0EA6584D4E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28280,7 +28279,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>182</v>
       </c>
@@ -28363,7 +28362,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>30</v>
       </c>
@@ -28446,7 +28445,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>329</v>
       </c>
@@ -28529,7 +28528,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>30</v>
       </c>
@@ -28612,7 +28611,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>182</v>
       </c>
@@ -28695,7 +28694,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>329</v>
       </c>
@@ -28778,7 +28777,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>329</v>
       </c>
@@ -28861,7 +28860,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>329</v>
       </c>
@@ -28944,7 +28943,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>329</v>
       </c>
@@ -29027,7 +29026,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>329</v>
       </c>
@@ -29110,7 +29109,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>30</v>
       </c>
@@ -29193,7 +29192,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>258</v>
       </c>
@@ -29276,7 +29275,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>329</v>
       </c>
@@ -29359,7 +29358,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>30</v>
       </c>
@@ -29442,7 +29441,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>258</v>
       </c>
@@ -29525,7 +29524,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>182</v>
       </c>
@@ -29608,7 +29607,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>258</v>
       </c>
@@ -29691,7 +29690,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>258</v>
       </c>
@@ -29774,7 +29773,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>258</v>
       </c>
@@ -29857,7 +29856,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>258</v>
       </c>
@@ -29940,7 +29939,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>329</v>
       </c>
@@ -30023,7 +30022,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>30</v>
       </c>
@@ -30106,7 +30105,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>107</v>
       </c>
@@ -30189,7 +30188,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>107</v>
       </c>
@@ -30272,7 +30271,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>107</v>
       </c>
@@ -30355,7 +30354,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>107</v>
       </c>
@@ -30438,7 +30437,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>182</v>
       </c>
@@ -30521,7 +30520,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>30</v>
       </c>
@@ -30604,7 +30603,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>258</v>
       </c>
@@ -30687,7 +30686,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>258</v>
       </c>
@@ -30770,7 +30769,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
         <v>329</v>
       </c>
@@ -30853,7 +30852,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>182</v>
       </c>
@@ -30936,7 +30935,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>329</v>
       </c>
@@ -31019,7 +31018,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>182</v>
       </c>
@@ -31102,7 +31101,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>329</v>
       </c>
@@ -31185,7 +31184,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>182</v>
       </c>
@@ -31268,7 +31267,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>30</v>
       </c>
@@ -31351,7 +31350,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>258</v>
       </c>
@@ -31434,7 +31433,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
         <v>329</v>
       </c>
@@ -31517,7 +31516,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
         <v>329</v>
       </c>
@@ -31600,7 +31599,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
         <v>182</v>
       </c>
@@ -31683,7 +31682,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
         <v>258</v>
       </c>
@@ -31766,7 +31765,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
         <v>329</v>
       </c>
@@ -31849,7 +31848,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>182</v>
       </c>
@@ -31932,7 +31931,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>30</v>
       </c>
@@ -32015,7 +32014,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>107</v>
       </c>
@@ -32098,7 +32097,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>107</v>
       </c>
@@ -32181,7 +32180,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
         <v>107</v>
       </c>
@@ -32264,7 +32263,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="41" t="s">
         <v>182</v>
       </c>
@@ -32347,7 +32346,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>248</v>
       </c>
@@ -32430,7 +32429,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
         <v>258</v>
       </c>
@@ -32513,7 +32512,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
         <v>258</v>
       </c>
@@ -32596,7 +32595,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>329</v>
       </c>
@@ -32679,7 +32678,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>30</v>
       </c>
@@ -32762,7 +32761,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>182</v>
       </c>
@@ -32845,7 +32844,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>258</v>
       </c>
@@ -32928,7 +32927,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
         <v>258</v>
       </c>
@@ -33011,7 +33010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>329</v>
       </c>
@@ -33094,7 +33093,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>30</v>
       </c>
@@ -33177,7 +33176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
         <v>107</v>
       </c>
@@ -33260,7 +33259,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>107</v>
       </c>
@@ -33343,7 +33342,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>258</v>
       </c>
@@ -33426,7 +33425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
         <v>258</v>
       </c>
@@ -33509,7 +33508,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
         <v>258</v>
       </c>
@@ -33592,7 +33591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
         <v>329</v>
       </c>
@@ -33675,7 +33674,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
         <v>30</v>
       </c>
@@ -33758,7 +33757,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>107</v>
       </c>
@@ -33841,7 +33840,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>107</v>
       </c>
@@ -33924,7 +33923,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>107</v>
       </c>
@@ -34007,7 +34006,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="41" t="s">
         <v>182</v>
       </c>
@@ -34090,7 +34089,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="41" t="s">
         <v>182</v>
       </c>
@@ -34173,7 +34172,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
         <v>182</v>
       </c>
@@ -34256,7 +34255,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
         <v>258</v>
       </c>
@@ -34339,7 +34338,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
         <v>258</v>
       </c>
@@ -34422,7 +34421,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
         <v>258</v>
       </c>
@@ -34505,7 +34504,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
         <v>329</v>
       </c>
@@ -34588,7 +34587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
         <v>329</v>
       </c>
@@ -34671,7 +34670,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
         <v>329</v>
       </c>
@@ -34754,7 +34753,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
         <v>30</v>
       </c>
@@ -34837,7 +34836,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="41" t="s">
         <v>182</v>
       </c>
@@ -34920,7 +34919,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
         <v>258</v>
       </c>
@@ -35003,7 +35002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
         <v>258</v>
       </c>
@@ -35086,7 +35085,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
         <v>30</v>
       </c>
@@ -35169,7 +35168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>107</v>
       </c>
@@ -35252,7 +35251,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>107</v>
       </c>
@@ -35335,7 +35334,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>107</v>
       </c>
@@ -35418,7 +35417,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>107</v>
       </c>
@@ -35501,7 +35500,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
         <v>107</v>
       </c>
@@ -35584,7 +35583,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
         <v>182</v>
       </c>
@@ -35667,7 +35666,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="41" t="s">
         <v>182</v>
       </c>
@@ -35750,7 +35749,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
         <v>329</v>
       </c>
@@ -35833,7 +35832,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
         <v>30</v>
       </c>
@@ -35916,7 +35915,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
         <v>107</v>
       </c>
@@ -35999,7 +35998,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="43" t="s">
         <v>258</v>
       </c>
@@ -36082,7 +36081,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
         <v>329</v>
       </c>
@@ -36165,7 +36164,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
         <v>30</v>
       </c>
@@ -36248,7 +36247,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="41" t="s">
         <v>182</v>
       </c>
@@ -36331,7 +36330,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="43" t="s">
         <v>258</v>
       </c>
@@ -36414,7 +36413,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="45" t="s">
         <v>329</v>
       </c>
@@ -36497,7 +36496,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
         <v>258</v>
       </c>
@@ -36580,7 +36579,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
         <v>30</v>
       </c>
@@ -36663,7 +36662,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>107</v>
       </c>
@@ -36746,7 +36745,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>107</v>
       </c>
@@ -36829,7 +36828,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
         <v>258</v>
       </c>
@@ -36912,7 +36911,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
         <v>329</v>
       </c>
@@ -36995,7 +36994,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
         <v>30</v>
       </c>
@@ -37078,7 +37077,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="40" t="s">
         <v>107</v>
       </c>
@@ -37161,7 +37160,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
         <v>107</v>
       </c>
@@ -37244,7 +37243,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
         <v>258</v>
       </c>
@@ -37327,7 +37326,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
         <v>329</v>
       </c>
@@ -37410,7 +37409,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
         <v>30</v>
       </c>
@@ -37493,7 +37492,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
         <v>107</v>
       </c>
@@ -37576,7 +37575,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
         <v>107</v>
       </c>
@@ -37659,7 +37658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
         <v>258</v>
       </c>
@@ -37742,7 +37741,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="45" t="s">
         <v>329</v>
       </c>
@@ -37825,7 +37824,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
         <v>329</v>
       </c>
@@ -37908,7 +37907,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>30</v>
       </c>
@@ -37991,7 +37990,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="41" t="s">
         <v>182</v>
       </c>
@@ -38074,7 +38073,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="41" t="s">
         <v>182</v>
       </c>
@@ -38157,7 +38156,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
         <v>107</v>
       </c>
@@ -38240,7 +38239,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
         <v>107</v>
       </c>
@@ -38323,7 +38322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="s">
         <v>248</v>
       </c>
@@ -38406,7 +38405,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="41" t="s">
         <v>182</v>
       </c>
@@ -38489,7 +38488,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>30</v>
       </c>
@@ -38572,7 +38571,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>107</v>
       </c>
@@ -38655,7 +38654,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>107</v>
       </c>
@@ -38738,7 +38737,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="41" t="s">
         <v>182</v>
       </c>
@@ -38821,7 +38820,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="41" t="s">
         <v>182</v>
       </c>
@@ -38904,7 +38903,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
         <v>248</v>
       </c>
@@ -38987,7 +38986,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="43" t="s">
         <v>258</v>
       </c>
@@ -39070,7 +39069,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
         <v>329</v>
       </c>
@@ -39153,7 +39152,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
         <v>329</v>
       </c>
@@ -40482,16 +40481,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:AA185" xr:uid="{5C0EAD10-4FE2-4028-A959-E07A23706446}">
-    <filterColumn colId="26">
-      <customFilters>
-        <customFilter val="*Count*"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A9:AA185">
-      <sortCondition ref="A8:A185"/>
-    </sortState>
-  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:S7"/>
